--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.53</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1637,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1653,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -1574,7 +1669,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1590,13 +1685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1756,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -1685,7 +1894,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1701,13 +1910,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>013233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>华夏中证500指数智选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.3686</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -734,36 +864,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +928,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -828,36 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>67.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>3.2908</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -866,36 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>003831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>建信鑫瑞回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>75.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3967</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -904,36 +1034,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005459</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合A</t>
+          <t>银河君尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -942,36 +1072,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合A</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -980,36 +1110,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519615</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合I</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1018,36 +1148,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005460</t>
+          <t>005053</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合C</t>
+          <t>银河量化价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>74.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1056,32 +1186,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519614</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合C</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1094,36 +1224,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005053</t>
+          <t>001744</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河量化价值混合</t>
+          <t>诺安进取回报灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.20</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1288,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1188,36 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2908</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003831</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>98.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.3967</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>005459</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合A</t>
+          <t>银河嘉谊灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>39.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1302,36 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519615</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合I</t>
+          <t>银河君尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1340,36 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519614</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合C</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1378,36 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005053</t>
+          <t>005460</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河量化价值混合</t>
+          <t>银河嘉谊灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>39.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1416,32 +1546,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1454,36 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001744</t>
+          <t>005053</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安进取回报灵活配置混合</t>
+          <t>银河量化价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>77.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1648,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1548,36 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.22</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1032</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,7 +1742,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1642,150 +1772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013233</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强A</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>80.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3686</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3596</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013234</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证500指数智选增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1799,144 +1815,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002249-大洋电机.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.53</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013233</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3686</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.64</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3596</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0747</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013234</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强C</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0569</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -893,366 +1118,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2908</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003831</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0841</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河量化价值混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1288,7 +1153,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1318,36 +1183,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>67.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>3.2908</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1356,36 +1221,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>003831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>建信鑫瑞回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>75.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3967</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1394,36 +1259,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005459</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合A</t>
+          <t>银河君尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1432,36 +1297,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合A</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1470,36 +1335,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519615</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合I</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1508,36 +1373,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005460</t>
+          <t>005053</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合C</t>
+          <t>银河量化价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>74.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1546,32 +1411,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519614</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合C</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1584,36 +1449,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005053</t>
+          <t>001744</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河量化价值混合</t>
+          <t>诺安进取回报灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.20</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1678,36 +1543,302 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.6894</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1782,26 +1913,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +1941,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
